--- a/CASUAL/LA ONT/HAYAG, JERMAINE JOY.xlsx
+++ b/CASUAL/LA ONT/HAYAG, JERMAINE JOY.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>UT(0-0-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-43)</t>
   </si>
 </sst>
 </file>
@@ -736,15 +739,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -757,11 +751,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1458,7 +1461,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1504,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1568,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1628,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1694,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1757,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1855,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1914,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1979,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2022,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2097,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2283,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2349,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2407,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2473,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2529,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2604,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2647,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2713,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2769,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2867,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2930,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2996,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3401,12 +3404,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,14 +3439,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3456,14 +3459,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3476,16 +3479,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3511,18 +3514,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3569,7 +3572,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.734999999999999</v>
+        <v>58.644999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4813,23 +4816,19 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C69" s="13"/>
       <c r="D69" s="39">
-        <v>1.4999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
@@ -4838,13 +4837,17 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4858,7 +4861,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4878,7 +4881,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4898,7 +4901,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4918,17 +4921,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>72</v>
-      </c>
+        <v>44835</v>
+      </c>
+      <c r="B74" s="20"/>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39">
-        <v>1</v>
-      </c>
+      <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4938,16 +4937,14 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="49">
-        <v>44881</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -4964,20 +4961,28 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="49">
+        <v>44881</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="39"/>
+      <c r="A76" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="39">
+        <v>1</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4985,19 +4990,17 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>44927</v>
+      <c r="A77" s="48" t="s">
+        <v>89</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -5006,18 +5009,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <f>EDATE(A77,1)</f>
-        <v>44958</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B78" s="20"/>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39">
-        <v>2</v>
-      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -5027,23 +5025,21 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <f t="shared" ref="A79:A126" si="0">EDATE(A78,1)</f>
-        <v>44986</v>
+        <f>EDATE(A78,1)</f>
+        <v>44958</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
       <c r="D79" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
@@ -5055,19 +5051,23 @@
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <f t="shared" si="0"/>
-        <v>45017</v>
-      </c>
-      <c r="B80" s="20"/>
+        <f t="shared" ref="A80:A127" si="0">EDATE(A79,1)</f>
+        <v>44986</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>3</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
@@ -5077,12 +5077,14 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -5103,7 +5105,7 @@
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5124,7 +5126,7 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5145,7 +5147,7 @@
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5166,7 +5168,7 @@
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5187,7 +5189,7 @@
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5208,7 +5210,7 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="0"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5229,16 +5231,18 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -5246,8 +5250,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
-        <v>103</v>
+      <c r="A89" s="40">
+        <f t="shared" si="0"/>
+        <v>45261</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5264,9 +5269,8 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <f>EDATE(A88,1)</f>
-        <v>45292</v>
+      <c r="A90" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5284,8 +5288,8 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <f t="shared" si="0"/>
-        <v>45323</v>
+        <f>EDATE(A89,1)</f>
+        <v>45292</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5304,7 +5308,7 @@
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="0"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5323,7 +5327,7 @@
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5342,7 +5346,7 @@
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5361,7 +5365,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5380,7 +5384,7 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5399,7 +5403,7 @@
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5418,7 +5422,7 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5437,7 +5441,7 @@
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5456,7 +5460,7 @@
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="0"/>
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5475,7 +5479,7 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="0"/>
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5494,7 +5498,7 @@
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="0"/>
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5513,7 +5517,7 @@
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5532,7 +5536,7 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5551,7 +5555,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="0"/>
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5570,7 +5574,7 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="0"/>
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5589,7 +5593,7 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5608,7 +5612,7 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="0"/>
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5627,7 +5631,7 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="0"/>
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5646,7 +5650,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5665,7 +5669,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5684,7 +5688,7 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5703,7 +5707,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5722,7 +5726,7 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5741,7 +5745,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5760,7 +5764,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5779,7 +5783,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5798,7 +5802,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5817,7 +5821,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5836,7 +5840,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5855,7 +5859,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5874,7 +5878,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="0"/>
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5893,7 +5897,7 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5912,7 +5916,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5931,7 +5935,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="0"/>
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5950,7 +5954,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="0"/>
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5967,7 +5971,10 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <f t="shared" si="0"/>
+        <v>46388</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -6111,34 +6118,50 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6206,14 +6229,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6224,14 +6247,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6242,14 +6265,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6275,18 +6298,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8951,11 +8974,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
